--- a/Literature Review - Copy.xlsx
+++ b/Literature Review - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47202211-8D9B-4A01-8A5C-309279DAAE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8036BC2-F2C9-4A77-80D9-B4BD25FE836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -634,9 +634,6 @@
 4 sensors located at the backrest</t>
   </si>
   <si>
-    <t>(P1) Seated upright, (P2) Slouching, (P3) Leaning forward, (P4) Leaning back, (P5) Leaning back with no lumbar support, (P6) Leaning left, (P7) Leaning right, (P8) Right leg crossed, (P9) Right leg crossed, leaning left, (P10) Left leg crossed, (P11) Left leg crossed, leaning right</t>
-  </si>
-  <si>
     <t>It had a low accuracy for the classification of 11 postures. They had to reduce it to 8 postures to be able to achieve 93.40%
 Little to nothing was discussed on the mobile app</t>
   </si>
@@ -1058,6 +1055,10 @@
   </si>
   <si>
     <t>Test Subjects</t>
+  </si>
+  <si>
+    <t>(P1) Seated upright, (P2)
+Leaning forward, (P3) Leaning back, (P4) Leaning left, (P5) Leaning right.</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1271,7 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1329,6 +1330,10 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="14"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="15" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="40% - Accent1" xfId="9" builtinId="31"/>
@@ -9567,9 +9572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9607,7 +9612,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9713,7 +9718,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9855,7 +9860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9865,8 +9870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9888,16 +9893,16 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -9933,15 +9938,15 @@
         <v>66</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="24">
         <v>2023</v>
@@ -9950,7 +9955,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>102</v>
@@ -9988,7 +9993,7 @@
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="24">
         <v>2021</v>
@@ -9997,7 +10002,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>106</v>
@@ -10041,7 +10046,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="32">
         <v>2017</v>
@@ -10050,7 +10055,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>103</v>
@@ -10094,7 +10099,7 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="24">
         <v>2023</v>
@@ -10103,7 +10108,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>115</v>
@@ -10141,7 +10146,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" s="24">
         <v>2020</v>
@@ -10150,7 +10155,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>121</v>
@@ -10188,7 +10193,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="24">
         <v>2022</v>
@@ -10197,7 +10202,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
@@ -10235,7 +10240,7 @@
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="24">
         <v>2022</v>
@@ -10244,7 +10249,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -10282,7 +10287,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="24">
         <v>2021</v>
@@ -10291,10 +10296,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>142</v>
@@ -10327,7 +10332,7 @@
         <v>141</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>75</v>
@@ -10335,7 +10340,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" s="32">
         <v>2018</v>
@@ -10344,7 +10349,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -10382,7 +10387,7 @@
     </row>
     <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="32">
         <v>2018</v>
@@ -10391,7 +10396,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>149</v>
@@ -10435,7 +10440,7 @@
     </row>
     <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="24">
         <v>2019</v>
@@ -10444,7 +10449,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
         <v>153</v>
@@ -10482,7 +10487,7 @@
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="24">
         <v>2020</v>
@@ -10491,10 +10496,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>159</v>
@@ -10527,56 +10532,56 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="24">
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="9">
         <v>2021</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="9">
         <v>11</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="34">
         <v>0.92</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="9">
         <v>36</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" s="31">
         <v>2013</v>
@@ -10585,7 +10590,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>30</v>
@@ -10596,8 +10601,8 @@
       <c r="G15">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
-        <v>167</v>
+      <c r="H15" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>12</v>
@@ -10609,7 +10614,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>54</v>
@@ -10618,12 +10623,12 @@
         <v>61</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" s="30">
         <v>2007</v>
@@ -10632,19 +10637,19 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -10656,7 +10661,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>117</v>
@@ -10665,12 +10670,12 @@
         <v>75</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="33">
         <v>2016</v>
@@ -10679,13 +10684,13 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -10703,7 +10708,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>117</v>
@@ -10712,12 +10717,12 @@
         <v>75</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="33">
         <v>2016</v>
@@ -10726,19 +10731,19 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18">
         <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>40</v>
@@ -10750,7 +10755,7 @@
         <v>41</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>117</v>
@@ -10759,12 +10764,12 @@
         <v>75</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="24">
         <v>2023</v>
@@ -10773,13 +10778,13 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -10797,21 +10802,21 @@
         <v>20</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N19" t="s">
         <v>61</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B20" s="32">
         <v>2018</v>
@@ -10820,13 +10825,13 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -10844,7 +10849,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>117</v>
@@ -10853,10 +10858,10 @@
         <v>75</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>61</v>
@@ -10864,7 +10869,7 @@
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="24">
         <v>2021</v>
@@ -10873,13 +10878,13 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -10897,21 +10902,21 @@
         <v>12</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N21" t="s">
         <v>61</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="24">
         <v>2021</v>
@@ -10920,7 +10925,7 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>53</v>
@@ -10953,10 +10958,10 @@
         <v>61</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>61</v>
@@ -10964,7 +10969,7 @@
     </row>
     <row r="23" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B23" s="24">
         <v>2020</v>
@@ -10973,13 +10978,13 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -11006,7 +11011,7 @@
         <v>61</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>117</v>
@@ -11017,7 +11022,7 @@
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="24">
         <v>2019</v>
@@ -11026,13 +11031,13 @@
         <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>117</v>
@@ -11067,7 +11072,7 @@
     </row>
     <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="24">
         <v>2020</v>
@@ -11076,13 +11081,13 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -11100,7 +11105,7 @@
         <v>117</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>117</v>
@@ -11109,22 +11114,22 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26" s="16">
         <v>4</v>
@@ -11141,7 +11146,7 @@
         <v>74</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N26" s="16" t="s">
         <v>75</v>
@@ -11155,7 +11160,7 @@
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="31">
         <v>2013</v>
@@ -11164,13 +11169,13 @@
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="20" t="s">
@@ -11186,7 +11191,7 @@
         <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>78</v>
@@ -11203,7 +11208,7 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="24">
         <v>2021</v>
@@ -11212,13 +11217,13 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G28">
         <v>15</v>
@@ -11245,10 +11250,10 @@
         <v>61</v>
       </c>
       <c r="O28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q28" t="s">
         <v>75</v>
@@ -11256,7 +11261,7 @@
     </row>
     <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="24">
         <v>2023</v>
@@ -11265,13 +11270,13 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E29" t="s">
         <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -11289,7 +11294,7 @@
         <v>117</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>117</v>
@@ -11298,7 +11303,7 @@
         <v>61</v>
       </c>
       <c r="O29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P29" s="18" t="s">
         <v>117</v>
@@ -11306,7 +11311,7 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="31">
         <v>2014</v>
@@ -11315,13 +11320,13 @@
         <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -11337,7 +11342,7 @@
         <v>117</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>117</v>
@@ -11351,19 +11356,19 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="24">
         <v>2022</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="D31" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>117</v>
@@ -11372,7 +11377,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>117</v>
@@ -11384,7 +11389,7 @@
         <v>117</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>117</v>
@@ -11393,7 +11398,7 @@
         <v>75</v>
       </c>
       <c r="O31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>117</v>
@@ -11401,7 +11406,7 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="31">
         <v>2013</v>
@@ -11410,22 +11415,22 @@
         <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E32" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" t="s">
         <v>205</v>
-      </c>
-      <c r="F32" t="s">
-        <v>206</v>
       </c>
       <c r="G32">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" t="s">
         <v>202</v>
-      </c>
-      <c r="I32" t="s">
-        <v>203</v>
       </c>
       <c r="J32" s="1">
         <v>0.85899999999999999</v>
@@ -11434,16 +11439,16 @@
         <v>14</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N32" t="s">
         <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>117</v>
@@ -11451,28 +11456,28 @@
     </row>
     <row r="33" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="24">
         <v>2023</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G33">
         <v>6</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>117</v>
@@ -11484,7 +11489,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M33" s="15" t="s">
         <v>86</v>
@@ -11493,7 +11498,7 @@
         <v>61</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>117</v>
@@ -11501,31 +11506,31 @@
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" s="24">
         <v>2019</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="G34">
         <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J34" s="4">
         <v>0.96</v>
@@ -11534,16 +11539,16 @@
         <v>8</v>
       </c>
       <c r="L34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M34" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P34" s="18" t="s">
         <v>117</v>
@@ -11551,28 +11556,28 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B35" s="24">
         <v>2022</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G35">
         <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I35" s="27" t="s">
         <v>40</v>
@@ -11584,24 +11589,24 @@
         <v>18</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N35" t="s">
         <v>61</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H40">
         <f>AVERAGE(K2:K35)</f>
@@ -11645,7 +11650,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46">
         <v>26</v>
@@ -11668,7 +11673,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -11677,7 +11682,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -11688,13 +11693,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H49">
         <v>22</v>
@@ -11702,13 +11707,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H50">
         <v>11</v>
@@ -11716,21 +11721,21 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B72">
         <f>AVERAGE(G20,G23,G29,G34)</f>
@@ -11747,7 +11752,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B73">
         <f>AVERAGE(G14,G2)</f>
@@ -11815,7 +11820,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B77">
         <f>AVERAGE(G10,G19)</f>
@@ -11846,7 +11851,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B79">
         <v>15</v>
@@ -11902,24 +11907,24 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="E101" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -11936,7 +11941,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11953,7 +11958,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -11970,7 +11975,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -11987,7 +11992,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12036,7 +12041,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="5">
         <v>2013</v>
@@ -12074,7 +12079,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -12112,7 +12117,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3">
         <v>124</v>
@@ -12150,7 +12155,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4">
         <v>109</v>
@@ -12234,10 +12239,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
